--- a/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,475 +40,496 @@
     <t>name</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instructions</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>work</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>balls</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>air</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>working</t>
   </si>
   <si>
     <t>looked</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>look</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>make</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>played</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>helicopter</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>helicopter</t>
+    <t>wait</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>challenge</t>
-  </si>
-  <si>
-    <t>wait</t>
+    <t>story</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>strategy</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>story</t>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>books</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>challenging</t>
-  </si>
-  <si>
-    <t>stores</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>hit</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>educational</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>educational</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>thomas</t>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>everyone</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>everyone</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>games</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>games</t>
+    <t>children</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>children</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>positive</t>
@@ -869,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,10 +898,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -938,13 +959,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9859154929577465</v>
+        <v>0.9797297297297297</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -956,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K3">
-        <v>0.8701298701298701</v>
+        <v>0.90625</v>
       </c>
       <c r="L3">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -980,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -988,13 +1009,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.972972972972973</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C4">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1006,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K4">
-        <v>0.8679245283018868</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1030,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1038,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.967741935483871</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1059,16 +1080,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K5">
-        <v>0.8615384615384616</v>
+        <v>0.8701298701298701</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1080,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1088,13 +1109,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.956989247311828</v>
+        <v>0.9660194174757282</v>
       </c>
       <c r="C6">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D6">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1106,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K6">
-        <v>0.8297872340425532</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1130,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1138,13 +1159,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9473684210526315</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1156,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K7">
-        <v>0.828125</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1180,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1188,13 +1209,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.941747572815534</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="C8">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1206,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K8">
-        <v>0.8279569892473119</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1230,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1238,13 +1259,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9130434782608695</v>
+        <v>0.9301075268817204</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1256,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K9">
-        <v>0.8214285714285714</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1280,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1288,13 +1309,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9074074074074074</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1306,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1330,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1338,13 +1359,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8828125</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C11">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1356,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7987551867219918</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1380,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1388,13 +1409,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8571428571428571</v>
+        <v>0.8828125</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1406,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K12">
-        <v>0.7780082987551867</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1430,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1438,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8518518518518519</v>
+        <v>0.875</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1459,16 +1480,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K13">
-        <v>0.7503586800573888</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L13">
-        <v>523</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>523</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1480,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1488,13 +1509,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8104265402843602</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C14">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1506,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K14">
-        <v>0.7142857142857143</v>
+        <v>0.7517934002869441</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>524</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>524</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1530,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1538,13 +1559,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8032786885245902</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1556,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K15">
-        <v>0.7125382262996942</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1580,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1588,13 +1609,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.796875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1606,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K16">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1630,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1638,13 +1659,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7837837837837838</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1656,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K17">
-        <v>0.6818181818181818</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1680,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1688,13 +1709,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7758620689655172</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1706,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K18">
-        <v>0.6385542168674698</v>
+        <v>0.6819571865443425</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1730,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1738,13 +1759,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7368421052631579</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1756,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K19">
-        <v>0.6296296296296297</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1788,13 +1809,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1806,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K20">
-        <v>0.6181818181818182</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1830,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1838,13 +1859,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7045454545454546</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1856,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K21">
-        <v>0.6157635467980296</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L21">
-        <v>750</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>752</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1877,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>468</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1888,13 +1909,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7010309278350515</v>
+        <v>0.7772511848341233</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="D22">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1906,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K22">
-        <v>0.6097560975609756</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1930,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1938,13 +1959,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6857142857142857</v>
+        <v>0.7731958762886598</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1956,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K23">
-        <v>0.6086956521739131</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1980,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1988,13 +2009,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6727272727272727</v>
+        <v>0.765625</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2006,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K24">
-        <v>0.5806451612903226</v>
+        <v>0.5963855421686747</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2030,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2038,13 +2059,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6666666666666666</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2056,19 +2077,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.5816242821985234</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>709</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>710</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2077,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2088,13 +2109,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6633663366336634</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="C26">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2106,19 +2127,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K26">
-        <v>0.5682451253481894</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L26">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2130,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2138,13 +2159,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6388888888888888</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C27">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2156,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K27">
-        <v>0.54</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2180,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2188,13 +2209,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6349206349206349</v>
+        <v>0.7228915662650602</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2209,16 +2230,16 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K28">
-        <v>0.5172413793103449</v>
+        <v>0.5236768802228412</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2230,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2238,13 +2259,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6231884057971014</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="C29">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2256,19 +2277,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K29">
-        <v>0.5166666666666667</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2280,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2288,13 +2309,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6219512195121951</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="D30">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2306,19 +2327,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K30">
-        <v>0.5128205128205128</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2330,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2338,13 +2359,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6144578313253012</v>
+        <v>0.6584158415841584</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2356,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K31">
-        <v>0.4867724867724867</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L31">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2380,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2388,13 +2409,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6134453781512605</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C32">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2406,19 +2427,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K32">
-        <v>0.4528301886792453</v>
+        <v>0.42</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2438,13 +2459,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6111111111111112</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2456,19 +2477,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K33">
-        <v>0.4528301886792453</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2480,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2488,13 +2509,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2506,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K34">
-        <v>0.4347826086956522</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2530,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2538,13 +2559,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5942028985507246</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2556,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K35">
-        <v>0.4166666666666667</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2580,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2588,13 +2609,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5892857142857143</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2606,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K36">
-        <v>0.4019480519480519</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L36">
-        <v>619</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>620</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2627,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>921</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2638,13 +2659,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2656,19 +2677,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K37">
-        <v>0.368</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L37">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2680,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2688,13 +2709,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.546875</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2706,19 +2727,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K38">
-        <v>0.36</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2730,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2738,13 +2759,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2756,19 +2777,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K39">
-        <v>0.3524590163934426</v>
+        <v>0.3874107722258274</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>597</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>597</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2780,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>79</v>
+        <v>944</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2788,13 +2809,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5274725274725275</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2806,19 +2827,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K40">
-        <v>0.3311688311688312</v>
+        <v>0.3558282208588957</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>406</v>
       </c>
       <c r="M40">
-        <v>51</v>
+        <v>406</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2830,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>103</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2838,37 +2859,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5047619047619047</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C41">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="D41">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="E41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K41">
-        <v>0.3285714285714286</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2880,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2888,13 +2909,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2906,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K42">
-        <v>0.3052631578947368</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L42">
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2927,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>792</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2938,13 +2959,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4642857142857143</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2956,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K43">
-        <v>0.2786885245901639</v>
+        <v>0.272</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2980,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2988,13 +3009,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4262295081967213</v>
+        <v>0.5379746835443038</v>
       </c>
       <c r="C44">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="D44">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3006,19 +3027,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K44">
-        <v>0.2619047619047619</v>
+        <v>0.2402597402597403</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3030,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3038,13 +3059,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4210526315789473</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3056,31 +3077,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K45">
-        <v>0.2527472527472527</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3088,13 +3109,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4166666666666667</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3106,31 +3127,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K46">
-        <v>0.1916376306620209</v>
+        <v>0.21875</v>
       </c>
       <c r="L46">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>232</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3138,13 +3159,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="C47">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3156,19 +3177,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K47">
-        <v>0.1678321678321678</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3180,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3188,13 +3209,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3206,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K48">
-        <v>0.1485148514851485</v>
+        <v>0.1840277777777778</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3230,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>86</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3238,13 +3259,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3256,31 +3277,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49">
+        <v>0.1675675675675676</v>
+      </c>
+      <c r="L49">
+        <v>31</v>
+      </c>
+      <c r="M49">
+        <v>32</v>
+      </c>
+      <c r="N49">
+        <v>0.97</v>
+      </c>
+      <c r="O49">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
         <v>154</v>
-      </c>
-      <c r="K49">
-        <v>0.1484375</v>
-      </c>
-      <c r="L49">
-        <v>19</v>
-      </c>
-      <c r="M49">
-        <v>19</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3288,13 +3309,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3809523809523809</v>
+        <v>0.45</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3306,19 +3327,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K50">
-        <v>0.1293333333333333</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="L50">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="M50">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="N50">
         <v>0.98</v>
@@ -3330,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>653</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3338,13 +3359,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3765822784810127</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="C51">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3356,31 +3377,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K51">
-        <v>0.1233243967828418</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="L51">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>327</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3388,13 +3409,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3720930232558139</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="C52">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3406,19 +3427,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K52">
-        <v>0.1129032258064516</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3430,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3438,13 +3459,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3595505617977528</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3456,31 +3477,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K53">
-        <v>0.108695652173913</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>287</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3488,13 +3509,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.358974358974359</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3509,16 +3530,16 @@
         <v>50</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K54">
-        <v>0.1004016064257028</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3530,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>224</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3538,13 +3559,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.355072463768116</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C55">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3556,19 +3577,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K55">
-        <v>0.09316770186335403</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3580,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3588,13 +3609,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3488372093023256</v>
+        <v>0.41</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3606,31 +3627,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K56">
-        <v>0.09183673469387756</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N56">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>356</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3638,13 +3659,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3464566929133858</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C57">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D57">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3656,31 +3677,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K57">
-        <v>0.07843137254901961</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3688,13 +3709,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3461538461538461</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="C58">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D58">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3706,31 +3727,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K58">
-        <v>0.03723404255319149</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>543</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3738,13 +3759,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3333333333333333</v>
+        <v>0.3715846994535519</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3756,31 +3777,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K59">
-        <v>0.03440366972477064</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>421</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3788,25 +3809,49 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3265306122448979</v>
+        <v>0.3709090909090909</v>
       </c>
       <c r="C60">
+        <v>102</v>
+      </c>
+      <c r="D60">
+        <v>103</v>
+      </c>
+      <c r="E60">
+        <v>0.01</v>
+      </c>
+      <c r="F60">
+        <v>0.99</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>173</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K60">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="L60">
         <v>16</v>
       </c>
-      <c r="D60">
-        <v>16</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>33</v>
+      <c r="M60">
+        <v>23</v>
+      </c>
+      <c r="N60">
+        <v>0.7</v>
+      </c>
+      <c r="O60">
+        <v>0.3</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3814,13 +3859,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3125</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3832,7 +3877,31 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K61">
+        <v>0.03156384505021521</v>
+      </c>
+      <c r="L61">
+        <v>22</v>
+      </c>
+      <c r="M61">
+        <v>30</v>
+      </c>
+      <c r="N61">
+        <v>0.73</v>
+      </c>
+      <c r="O61">
+        <v>0.27</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3840,13 +3909,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3858,7 +3927,31 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62">
+        <v>0.03046594982078853</v>
+      </c>
+      <c r="L62">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>0.71</v>
+      </c>
+      <c r="O62">
+        <v>0.29</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3866,25 +3959,49 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2974683544303797</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="C63">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="E63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>222</v>
+        <v>49</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K63">
+        <v>0.02116402116402116</v>
+      </c>
+      <c r="L63">
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <v>54</v>
+      </c>
+      <c r="N63">
+        <v>0.3</v>
+      </c>
+      <c r="O63">
+        <v>0.7</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>740</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3892,13 +4009,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2972972972972973</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3910,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3918,13 +4035,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3936,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3944,13 +4061,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2830188679245283</v>
+        <v>0.3203125</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3962,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3970,13 +4087,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2785714285714286</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C67">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D67">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3988,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3996,13 +4113,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2622950819672131</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4014,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4022,25 +4139,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2536023054755043</v>
+        <v>0.2840236686390533</v>
       </c>
       <c r="C69">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D69">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E69">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F69">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>259</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4048,25 +4165,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2425595238095238</v>
+        <v>0.2731958762886598</v>
       </c>
       <c r="C70">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="D70">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="E70">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F70">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>509</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4074,13 +4191,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2422907488986784</v>
+        <v>0.2626112759643917</v>
       </c>
       <c r="C71">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="D71">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4092,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>344</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4100,13 +4217,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2380952380952381</v>
+        <v>0.2514285714285714</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4118,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4126,13 +4243,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2307692307692308</v>
+        <v>0.2429022082018927</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4144,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>90</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4152,13 +4269,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2163742690058479</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C74">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4170,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>134</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4178,25 +4295,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2018348623853211</v>
+        <v>0.2254335260115607</v>
       </c>
       <c r="C75">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>87</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4204,13 +4321,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1989795918367347</v>
+        <v>0.2246696035242291</v>
       </c>
       <c r="C76">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D76">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4222,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>157</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4230,13 +4347,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1885714285714286</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4248,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4256,13 +4373,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.188034188034188</v>
+        <v>0.2094594594594595</v>
       </c>
       <c r="C78">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D78">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4274,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4282,13 +4399,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1862595419847328</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C79">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4300,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>533</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4308,13 +4425,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.171875</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4326,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4334,13 +4451,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1505376344086022</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C81">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D81">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4352,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4360,25 +4477,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1428571428571428</v>
+        <v>0.1636085626911315</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>132</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4386,25 +4503,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1333333333333333</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4412,25 +4529,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1308411214953271</v>
+        <v>0.1322314049586777</v>
       </c>
       <c r="C84">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D84">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>186</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4438,13 +4555,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1273885350318471</v>
+        <v>0.1308900523560209</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4456,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4464,25 +4581,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.125</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="C86">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4490,25 +4607,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1238317757009346</v>
+        <v>0.1144859813084112</v>
       </c>
       <c r="C87">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D87">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F87">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4516,25 +4633,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.118705035971223</v>
+        <v>0.1114285714285714</v>
       </c>
       <c r="C88">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D88">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E88">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F88">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>245</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4542,25 +4659,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1148648648648649</v>
+        <v>0.1095571095571096</v>
       </c>
       <c r="C89">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4568,25 +4685,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1126760563380282</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="C90">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>315</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4594,25 +4711,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1111111111111111</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="C91">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D91">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F91">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4620,25 +4737,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1062355658198614</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="C92">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>387</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4646,13 +4763,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09947643979057591</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C93">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4664,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4672,25 +4789,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.0989010989010989</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C94">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D94">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E94">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="F94">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>328</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4698,25 +4815,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07317073170731707</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F95">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4724,25 +4841,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.06844106463878327</v>
+        <v>0.07308970099667775</v>
       </c>
       <c r="C96">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D96">
         <v>22</v>
       </c>
       <c r="E96">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4750,25 +4867,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.06237424547283702</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="C97">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E97">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="F97">
-        <v>0.8200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>466</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4776,25 +4893,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.0587248322147651</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="C98">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D98">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="F98">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>561</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4802,13 +4919,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.05647840531561462</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C99">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4820,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4828,25 +4945,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.03504672897196261</v>
+        <v>0.05187319884726225</v>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D100">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E100">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="F100">
-        <v>0.9399999999999999</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>413</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4854,25 +4971,129 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02791878172588833</v>
+        <v>0.04884318766066838</v>
       </c>
       <c r="C101">
+        <v>38</v>
+      </c>
+      <c r="D101">
+        <v>54</v>
+      </c>
+      <c r="E101">
+        <v>0.3</v>
+      </c>
+      <c r="F101">
+        <v>0.7</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.04694835680751173</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>23</v>
+      </c>
+      <c r="E102">
+        <v>0.13</v>
+      </c>
+      <c r="F102">
+        <v>0.87</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.04417670682730924</v>
+      </c>
+      <c r="C103">
         <v>22</v>
       </c>
-      <c r="D101">
+      <c r="D103">
         <v>28</v>
       </c>
-      <c r="E101">
+      <c r="E103">
         <v>0.21</v>
       </c>
-      <c r="F101">
+      <c r="F103">
         <v>0.79</v>
       </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>766</v>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.04357298474945534</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <v>0.33</v>
+      </c>
+      <c r="F104">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.03852596314907872</v>
+      </c>
+      <c r="C105">
+        <v>23</v>
+      </c>
+      <c r="D105">
+        <v>34</v>
+      </c>
+      <c r="E105">
+        <v>0.32</v>
+      </c>
+      <c r="F105">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
